--- a/ExcelRegisterBelegung.xlsx
+++ b/ExcelRegisterBelegung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8676" windowHeight="2736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8670" windowHeight="2730"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Asp Register übersicht</t>
   </si>
@@ -120,6 +120,48 @@
   </si>
   <si>
     <t>strideX</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>xStride</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>yStride</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>r_start</t>
+  </si>
+  <si>
+    <t>i_end</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>cast register</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>Oli Konvergenzberechnung</t>
   </si>
 </sst>
 </file>
@@ -478,20 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -505,7 +547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -530,10 +572,10 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -541,10 +583,10 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,10 +597,10 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,10 +608,10 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -580,10 +622,10 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -594,7 +636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -602,7 +644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -610,7 +652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -618,7 +660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -626,12 +668,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>26</v>
       </c>
@@ -639,9 +681,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelRegisterBelegung.xlsx
+++ b/ExcelRegisterBelegung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Asp Register übersicht</t>
   </si>
@@ -162,6 +162,51 @@
   </si>
   <si>
     <t>Oli Konvergenzberechnung</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>yEnde</t>
+  </si>
+  <si>
+    <t>deltaY</t>
+  </si>
+  <si>
+    <t>deltax</t>
+  </si>
+  <si>
+    <t>xAnfag</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>imaginäanteil</t>
+  </si>
+  <si>
+    <t>realteil</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>z real^2</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>2ab</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>zimaginär^2</t>
   </si>
 </sst>
 </file>
@@ -523,7 +568,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,6 +680,9 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -643,6 +691,9 @@
       <c r="I10" t="s">
         <v>29</v>
       </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -681,65 +732,131 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelRegisterBelegung.xlsx
+++ b/ExcelRegisterBelegung.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelRegisterBelegung.xlsx
+++ b/ExcelRegisterBelegung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Asp Register übersicht</t>
   </si>
@@ -182,9 +182,6 @@
     <t>xAnfag</t>
   </si>
   <si>
-    <t>current</t>
-  </si>
-  <si>
     <t>imaginäanteil</t>
   </si>
   <si>
@@ -207,6 +204,21 @@
   </si>
   <si>
     <t>zimaginär^2</t>
+  </si>
+  <si>
+    <t>current X</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t>2^0</t>
   </si>
 </sst>
 </file>
@@ -568,17 +580,17 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -592,7 +604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -606,7 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -620,7 +632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -645,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -656,7 +668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -670,7 +682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -684,7 +696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -695,7 +707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -703,7 +715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -711,7 +723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -719,12 +731,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
       <c r="L15" t="s">
         <v>26</v>
       </c>
@@ -732,12 +756,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H19" t="s">
         <v>32</v>
       </c>
@@ -745,7 +783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H20" t="s">
         <v>34</v>
       </c>
@@ -753,7 +791,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" t="s">
         <v>36</v>
       </c>
@@ -761,7 +799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -775,7 +813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -786,10 +824,10 @@
         <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -800,10 +838,10 @@
         <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -814,10 +852,10 @@
         <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -825,13 +863,13 @@
         <v>41</v>
       </c>
       <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
         <v>55</v>
       </c>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -839,13 +877,13 @@
         <v>43</v>
       </c>
       <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
         <v>57</v>
       </c>
-      <c r="I27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -853,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="H28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
         <v>59</v>
-      </c>
-      <c r="I28" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
